--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="112100AA3899D7EC0AED5301726628844A5E26F5"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162912"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +72,15 @@
   <si>
     <t>今生-功能页：BSC级参数查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地支-功能页：BSC级例行P数据导入</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,21 +432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x14ac xr xr2" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="144.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -458,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -466,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -474,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -482,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -490,7 +494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -498,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -506,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -514,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -522,7 +526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -530,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -538,227 +542,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -1,9 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="112100AA3899D7EC0AED5301726628844A5E26F5"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,12 +74,16 @@
   </si>
   <si>
     <t>地支-功能页：BSC级例行P数据导入</t>
+  </si>
+  <si>
+    <t>地支-功能页：排队读入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,21 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x14ac xr xr2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="144.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -462,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -470,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -478,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -486,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -494,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -502,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -510,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -518,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -526,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -534,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -542,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -550,223 +553,227 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地支-功能页：BSC级例行P数据导入</t>
-  </si>
-  <si>
-    <t>地支-功能页：排队读入数据</t>
+    <t>地干-功能页：BSC级例行P数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地干-功能页：排队读入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地干-功能页：把GSM网格分区每日指标的数据导到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-功能页：两点之间的距离(按经纬度)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,12 +571,20 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,7 +85,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今生-功能页：两点之间的距离(按经纬度)</t>
+    <t>今生-工具页：两点之间的距离(按经纬度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：计算多元线性回归的系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地干-功能页：查看基站入数的Log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,12 +595,20 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>地干-功能页：查看基站入数的Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地干-功能页：更改例行P数入数的信息、SQL等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,8 +615,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>地干-功能页：更改例行P数入数的信息、SQL等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM网格小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +465,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,8 +627,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>前世-工具页：导出GSM网格小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：更新保障小区列表，以CellID等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：更新保障小区列表，以中文名等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,8 +472,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,12 +643,20 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>今生-工具页：更新保障小区列表，以中文名等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：更新保障小区列表的导航页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：热点下载导航页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：下载基站信息表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：下载基站载调单信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,20 +675,36 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>今生-工具页：下载基站载调单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：根据保障类型下载小区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：根据保障热点下载小区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：GSM小区信息列出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +500,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,16 +719,28 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>今生-工具页：GSM小区信息列出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地干-功能页：跟踪用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,8 +747,12 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>地干-功能页：跟踪用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：下载服务器文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,8 +759,12 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>今生-工具页：下载服务器文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格瑞斯-工具页：预测用户工作地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,8 +771,12 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>英格瑞斯-工具页：预测用户工作地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来生-工具页：互联网页搜索引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM六忙时汇总数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +520,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,12 +787,20 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前世-工具页：导出GSM网格小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今生-工具页：更新保障小区列表，以CellID等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +154,30 @@
   </si>
   <si>
     <t>前世-工具页：导出GSM六忙时汇总数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM 24小时干扰数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来生-工具页：神经网络计算页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来生-工具页：全网业务量展示页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM 区域级全天业务量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM 小区级全天业务量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM网格小区指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +540,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +763,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +771,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +779,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +787,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +811,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,28 +819,48 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>前世-工具页：导出GSM网格小区指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来生-工具页：神经网络API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来生-工具页：验算神经网络的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,8 +548,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,12 +871,20 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>来生-工具页：验算神经网络的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：网盘上传页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：网盘下载页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,12 +895,20 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,14 @@
   </si>
   <si>
     <t>今生-工具页：网盘下载页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命-工具页：测试LTE知识点强弱项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：经纬度转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +564,8 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,12 +919,20 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>今生-工具页：经纬度转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前世-工具页：导出GSM 小区级小时级业务量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,8 +939,12 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>

--- a/TODO/Page ID.xlsx
+++ b/TODO/Page ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>PageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>前世-工具页：导出GSM 小区级小时级业务量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生-工具页：圈出小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +951,12 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
